--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2EB48-3AE0-447E-A893-2653FBC40A12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="J2EE" sheetId="1" r:id="rId1"/>
-    <sheet name="OOPs" sheetId="2" r:id="rId2"/>
-    <sheet name="Framework" sheetId="3" r:id="rId3"/>
-    <sheet name="DB" sheetId="4" r:id="rId4"/>
-    <sheet name="Tools" sheetId="5" r:id="rId5"/>
-    <sheet name="DS and Algo" sheetId="6" r:id="rId6"/>
-    <sheet name="DevOPs" sheetId="7" r:id="rId7"/>
-    <sheet name="Security" sheetId="8" r:id="rId8"/>
+    <sheet name="OOPs" sheetId="2" r:id="rId1"/>
+    <sheet name="Testing" sheetId="9" r:id="rId2"/>
+    <sheet name="J2EE" sheetId="1" r:id="rId3"/>
+    <sheet name="Framework" sheetId="3" r:id="rId4"/>
+    <sheet name="DB" sheetId="4" r:id="rId5"/>
+    <sheet name="Tools" sheetId="5" r:id="rId6"/>
+    <sheet name="DS and Algo" sheetId="6" r:id="rId7"/>
+    <sheet name="DevOPs" sheetId="7" r:id="rId8"/>
+    <sheet name="Security" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>Servlet</t>
   </si>
@@ -195,15 +197,37 @@
   <si>
     <t>Factory</t>
   </si>
+  <si>
+    <t>Builder</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Tuning</t>
+  </si>
+  <si>
+    <t>Joins</t>
+  </si>
+  <si>
+    <t>Prepared stmt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,8 +253,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,44 +535,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -636,8 +627,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3982D73-F2F4-4DF4-AC11-3666F03AF5E8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -692,22 +749,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -717,12 +786,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,8 +854,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -825,12 +894,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,8 +922,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
